--- a/Do_An/Phân Công.xlsx
+++ b/Do_An/Phân Công.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>MSSV_Họ Tên</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>078_Trương Ngọc Thiêng</t>
-  </si>
-  <si>
-    <t>Công Việc</t>
   </si>
   <si>
     <t>Mức Độ 
@@ -55,6 +52,15 @@
   </si>
   <si>
     <t>- Sơ đồ use case admin</t>
+  </si>
+  <si>
+    <t>Danh Sách Công Việc</t>
+  </si>
+  <si>
+    <t>Hoàn Thành</t>
+  </si>
+  <si>
+    <t>Chưa Hoàn Thành</t>
   </si>
 </sst>
 </file>
@@ -69,7 +75,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +103,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -128,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -137,28 +155,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,84 +461,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="22.1796875" customWidth="1"/>
     <col min="2" max="2" width="27.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="4" max="4" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.75" customHeight="1">
+    <row r="1" spans="1:6" ht="36.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="27" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="27" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="F2" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="25.5" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="22.5" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="22.5" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="C8" s="1"/>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="F2:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Do_An/Phân Công.xlsx
+++ b/Do_An/Phân Công.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tai lieu HK V\Android\DA_Android\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tai lieu HK V\Android\Thunder_Team\Do_An\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -172,14 +172,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,7 +464,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -484,10 +484,10 @@
       <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="7" t="s">
@@ -511,7 +511,7 @@
       <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="11">
         <v>9</v>
       </c>
     </row>
@@ -529,7 +529,7 @@
       <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -543,9 +543,9 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
       <c r="E5" s="1"/>

--- a/Do_An/Phân Công.xlsx
+++ b/Do_An/Phân Công.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tai lieu HK V\Android\Thunder_Team\Do_An\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tai lieu HK V\Android\DA_Android\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>MSSV_Họ Tên</t>
   </si>
@@ -61,6 +61,28 @@
   </si>
   <si>
     <t>Chưa Hoàn Thành</t>
+  </si>
+  <si>
+    <t>- Thiết kế màn hình: 
+  + Danh sách bài viết
+  + Trang cá nhân
+  + Danh sách địa danh
+  + Chi tiết địa danh
+  + Tìm kiếm
+  + Danh sách người like</t>
+  </si>
+  <si>
+    <t>- Thiết kế màn hình:
+  + Tạo đề xuất
+  + Tạo bài viết
+  + Chỉnh sửa thông tin cá nhân
+  + Đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>- Thiết kế màn hình:
+  + Đăng nhập
+  + Đăng ký tài khoản
+  + Chi tiết thông tin cá nhân</t>
   </si>
 </sst>
 </file>
@@ -119,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -142,11 +164,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,6 +238,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -547,21 +625,51 @@
       </c>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="E7" s="1"/>
+    <row r="5" spans="1:6" ht="137.25" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="112.5" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" ht="79.5" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6">
       <c r="E8" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Do_An/Phân Công.xlsx
+++ b/Do_An/Phân Công.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tai lieu HK V\Android\DA_Android\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tai lieu HK V\Android\Thunder_Team\Do_An\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -205,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,18 +237,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -542,7 +539,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -589,7 +586,7 @@
       <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="14">
         <v>9</v>
       </c>
     </row>
@@ -607,7 +604,7 @@
       <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -623,19 +620,21 @@
       <c r="E4" s="5">
         <v>0.8</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="137.25" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="16">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15">
         <v>10</v>
       </c>
     </row>
@@ -643,25 +642,29 @@
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="17"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="79.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="18"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6">
       <c r="E8" s="1"/>

--- a/Do_An/Phân Công.xlsx
+++ b/Do_An/Phân Công.xlsx
@@ -662,7 +662,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="5">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F7" s="17"/>
     </row>

--- a/Do_An/Phân Công.xlsx
+++ b/Do_An/Phân Công.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>MSSV_Họ Tên</t>
   </si>
@@ -83,6 +83,28 @@
   + Đăng nhập
   + Đăng ký tài khoản
   + Chi tiết thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>- Chức năng đăng nhập
+-  Chức năng đăng ký
+- Load thông tin lên trang chi tiết cá nhân
+- Load danh sách người like
+- Tìm kiếm</t>
+  </si>
+  <si>
+    <t>- Xử lý chức năng thêm bài viết
+- Tạo đề xuất
+- Đổi mật khẩu
+- Cập nhật thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>- Tạo các lớp trong ứng dụng
+- Load dữ liệu lên trang danh sách 
+bài viết
+- Load dữ liệu lên trang địa danh
+- Xử lý trang chi tiết địa danh
+- Xử lý nút like và dislike
+- Xóa và sửa bài viết</t>
   </si>
 </sst>
 </file>
@@ -97,7 +119,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +159,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -205,11 +233,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -247,13 +272,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -536,143 +567,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="27.6328125" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="30.90625" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="15">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5">
+      <c r="E2" s="3"/>
+      <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="14">
-        <v>9</v>
-      </c>
     </row>
     <row r="3" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5">
+      <c r="E3" s="3"/>
+      <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5">
+      <c r="E4" s="3"/>
+      <c r="F4" s="4">
         <v>0.8</v>
       </c>
-      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="137.25" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="16">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="5">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="15">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" spans="1:6" ht="112.5" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="5">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="79.5" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="5">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="4">
         <v>0.8</v>
       </c>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="E8" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="141" customHeight="1">
+      <c r="A8" s="13">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="72">
+      <c r="A9" s="13"/>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="108">
+      <c r="A10" s="13"/>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F7"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Do_An/Phân Công.xlsx
+++ b/Do_An/Phân Công.xlsx
@@ -270,21 +270,21 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,15 +569,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="7.6328125" customWidth="1"/>
     <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="30.90625" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" customWidth="1"/>
     <col min="4" max="4" width="22.6328125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="13.81640625" customWidth="1"/>
@@ -604,7 +604,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -622,7 +622,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A3" s="15"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -638,7 +638,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A4" s="15"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -654,7 +654,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="137.25" customHeight="1">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -670,7 +670,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="112.5" customHeight="1">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -684,7 +684,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="79.5" customHeight="1">
-      <c r="A7" s="18"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -694,11 +694,11 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="141" customHeight="1">
-      <c r="A8" s="13">
+      <c r="A8" s="18">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -707,36 +707,36 @@
       <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="72">
-      <c r="A9" s="13"/>
+    <row r="9" spans="1:6" ht="86.25" customHeight="1">
+      <c r="A9" s="18"/>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="108">
-      <c r="A10" s="13"/>
+    <row r="10" spans="1:6" ht="90">
+      <c r="A10" s="18"/>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="4">
         <v>0</v>
       </c>
